--- a/Luban/Configs/Datas/t_model_info.xlsx
+++ b/Luban/Configs/Datas/t_model_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2507EBBA-9511-4543-A599-9A2414D2B5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD9F36C-8435-4146-8562-ED41A772F309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="2880" windowWidth="25395" windowHeight="11385" xr2:uid="{0FC9B62D-9B09-4F7B-91F0-BF652707CCE6}"/>
+    <workbookView xWindow="6255" yWindow="2580" windowWidth="25395" windowHeight="11385" xr2:uid="{0FC9B62D-9B09-4F7B-91F0-BF652707CCE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>des</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Textrue/Character/swordman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>modelPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,6 +193,42 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fashion/sm_body0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fashion/sm_hair0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fashion/sm_pants0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fashion/sm_pants0000b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fashion/sm_coat0000a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fashion/sm_shoes0000a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fashion/sm_shoes0000b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fashion/katana0000b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fashion/katana0000c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +596,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -572,7 +604,7 @@
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.125" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
@@ -582,98 +614,98 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
         <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -684,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -699,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -713,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -728,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -742,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -757,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -771,7 +803,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -786,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7">
         <v>4</v>
@@ -800,7 +832,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -815,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -829,7 +861,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -844,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -858,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -873,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -887,7 +919,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -902,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -916,7 +948,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -931,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12">
         <v>5</v>

--- a/Luban/Configs/Datas/t_model_info.xlsx
+++ b/Luban/Configs/Datas/t_model_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD9F36C-8435-4146-8562-ED41A772F309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC24ED7-5A91-413B-BC23-B3840918EEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="2580" windowWidth="25395" windowHeight="11385" xr2:uid="{0FC9B62D-9B09-4F7B-91F0-BF652707CCE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{0FC9B62D-9B09-4F7B-91F0-BF652707CCE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>des</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,39 +196,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fashion/sm_body0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fashion/sm_hair0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fashion/sm_pants0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fashion/sm_pants0000b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fashion/sm_coat0000a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fashion/sm_shoes0000a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fashion/sm_shoes0000b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fashion/katana0000b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fashion/katana0000c</t>
+    <t>skin/fashion/sm_body0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin/fashion/sm_hair0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin/fashion/sm_pants0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin/fashion/sm_pants0000b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin/fashion/sm_coat0000a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin/fashion/sm_shoes0000a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin/fashion/sm_shoes0000b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin/fashion/katana0000b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin/fashion/katana0000c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin/monster/goblin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin/monster/flydragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin/monster/lugaru_Du</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林身体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼龙身体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧毒帽妖身体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin/monster/tau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛头战士身体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0545DF9B-7983-4A76-98A9-6D048FA2DE91}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -969,6 +1001,122 @@
         <v>5</v>
       </c>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>20000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>20001</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>20002</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>20003</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Configs/Datas/t_model_info.xlsx
+++ b/Luban/Configs/Datas/t_model_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC24ED7-5A91-413B-BC23-B3840918EEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B0606F-AF09-49F8-9599-7788B8580000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{0FC9B62D-9B09-4F7B-91F0-BF652707CCE6}"/>
   </bookViews>
@@ -196,54 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skin/fashion/sm_body0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skin/fashion/sm_hair0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skin/fashion/sm_pants0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skin/fashion/sm_pants0000b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skin/fashion/sm_coat0000a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skin/fashion/sm_shoes0000a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skin/fashion/sm_shoes0000b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skin/fashion/katana0000b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skin/fashion/katana0000c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skin/monster/goblin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skin/monster/flydragon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skin/monster/lugaru_Du</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>哥布林身体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,11 +208,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skin/monster/tau</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>牛头战士身体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_body0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_hair0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_pants0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_pants0000b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_coat0000a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_shoes0000a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_shoes0000b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>katana0000b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>katana0000c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goblin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flydragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lugaru_Du</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tau</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,7 +628,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -806,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -864,7 +864,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -922,7 +922,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -951,7 +951,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -980,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1006,10 +1006,10 @@
         <v>20000</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1035,10 +1035,10 @@
         <v>20001</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1064,10 +1064,10 @@
         <v>20002</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1093,10 +1093,10 @@
         <v>20003</v>
       </c>
       <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
         <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
       </c>
       <c r="E16">
         <v>1</v>
